--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value518.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value518.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356739794360005</v>
+        <v>1.262727499008179</v>
       </c>
       <c r="B1">
-        <v>2.237891502427793</v>
+        <v>2.513934850692749</v>
       </c>
       <c r="C1">
-        <v>2.367735274061658</v>
+        <v>3.590359210968018</v>
       </c>
       <c r="D1">
-        <v>2.187606691137777</v>
+        <v>2.966970443725586</v>
       </c>
       <c r="E1">
-        <v>0.6861458282991632</v>
+        <v>1.071547508239746</v>
       </c>
     </row>
   </sheetData>
